--- a/MT-SAMA5D2X V5.0/打板文件MT-ATSAMA5D2x-A/MT-ATSAMA5D2x-A核心板BOM.xlsx
+++ b/MT-SAMA5D2X V5.0/打板文件MT-ATSAMA5D2x-A/MT-ATSAMA5D2x-A核心板BOM.xlsx
@@ -791,10 +791,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>有源晶振50MHZ_Y70*50-4p</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Y4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,10 +805,6 @@
   <si>
     <t>D6 U7 Q1 Q2 Q3 Q4 Q6 Q8 Q9</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0805SMD LED  20mA </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>D2 D1</t>
@@ -978,6 +970,14 @@
   </si>
   <si>
     <t>2x50Pin-1.27mm，双排，100PIN，贴片插头</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有源晶振50MHZ，SMD-3225-4P,20PPM,TDK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">翠绿高亮，SMD,LED,20mA </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="24.95" customHeight="1"/>
@@ -1538,7 +1538,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2409,10 +2409,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="F43" s="23">
         <v>1</v>
@@ -2430,7 +2430,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>84</v>
@@ -2448,10 +2448,10 @@
         <v>64</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>109</v>
@@ -2472,10 +2472,10 @@
         <v>47</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="F46" s="23">
         <v>9</v>
@@ -2493,10 +2493,10 @@
         <v>48</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F47" s="23">
         <v>2</v>
@@ -2514,10 +2514,10 @@
         <v>105</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F48" s="23">
         <v>3</v>
@@ -2535,7 +2535,7 @@
         <v>105</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>91</v>
@@ -2577,16 +2577,16 @@
         <v>98</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F51" s="23">
         <v>1</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="29" customFormat="1" ht="32.25" customHeight="1">
@@ -2600,16 +2600,16 @@
         <v>98</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="32.25" customHeight="1">
@@ -2623,16 +2623,16 @@
         <v>98</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F53" s="23">
         <v>2</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="32.25" customHeight="1">
@@ -2649,7 +2649,7 @@
         <v>99</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F54" s="23">
         <v>1</v>
@@ -2664,10 +2664,10 @@
         <v>95</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>92</v>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="24.95" customHeight="1">
@@ -2690,16 +2690,16 @@
         <v>98</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F56" s="23">
         <v>1</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="24.95" customHeight="1">
@@ -2713,14 +2713,14 @@
         <v>49</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="23">
         <v>1</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="17" customFormat="1" ht="27.75" customHeight="1">
@@ -2728,14 +2728,14 @@
         <v>44</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
@@ -2746,14 +2746,14 @@
         <v>45</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
